--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ngf-Sort1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ngf-Sort1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2000683333333333</v>
+        <v>0.322531</v>
       </c>
       <c r="H2">
-        <v>0.600205</v>
+        <v>0.967593</v>
       </c>
       <c r="I2">
-        <v>0.01182207550347303</v>
+        <v>0.01892149513432853</v>
       </c>
       <c r="J2">
-        <v>0.01182207550347303</v>
+        <v>0.01892149513432853</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.652835333333333</v>
+        <v>0.9386610000000001</v>
       </c>
       <c r="N2">
-        <v>10.958506</v>
+        <v>2.815983</v>
       </c>
       <c r="O2">
-        <v>0.1451640905049821</v>
+        <v>0.04181245246793033</v>
       </c>
       <c r="P2">
-        <v>0.1451640905049821</v>
+        <v>0.04181245246793032</v>
       </c>
       <c r="Q2">
-        <v>0.7308166770811111</v>
+        <v>0.302747270991</v>
       </c>
       <c r="R2">
-        <v>6.57735009373</v>
+        <v>2.724725438919</v>
       </c>
       <c r="S2">
-        <v>0.001716140838342891</v>
+        <v>0.0007911541159262868</v>
       </c>
       <c r="T2">
-        <v>0.001716140838342891</v>
+        <v>0.0007911541159262865</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2000683333333333</v>
+        <v>0.322531</v>
       </c>
       <c r="H3">
-        <v>0.600205</v>
+        <v>0.967593</v>
       </c>
       <c r="I3">
-        <v>0.01182207550347303</v>
+        <v>0.01892149513432853</v>
       </c>
       <c r="J3">
-        <v>0.01182207550347303</v>
+        <v>0.01892149513432853</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>7.451331</v>
       </c>
       <c r="O3">
-        <v>0.09870557972652284</v>
+        <v>0.1106393125456779</v>
       </c>
       <c r="P3">
-        <v>0.09870557972652286</v>
+        <v>0.1106393125456779</v>
       </c>
       <c r="Q3">
-        <v>0.4969251247616666</v>
+        <v>0.801095079587</v>
       </c>
       <c r="R3">
-        <v>4.472326122855</v>
+        <v>7.209855716283</v>
       </c>
       <c r="S3">
-        <v>0.00116690481614103</v>
+        <v>0.002093461213998499</v>
       </c>
       <c r="T3">
-        <v>0.00116690481614103</v>
+        <v>0.002093461213998498</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2000683333333333</v>
+        <v>0.322531</v>
       </c>
       <c r="H4">
-        <v>0.600205</v>
+        <v>0.967593</v>
       </c>
       <c r="I4">
-        <v>0.01182207550347303</v>
+        <v>0.01892149513432853</v>
       </c>
       <c r="J4">
-        <v>0.01182207550347303</v>
+        <v>0.01892149513432853</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>57.080637</v>
       </c>
       <c r="O4">
-        <v>0.7561303297684949</v>
+        <v>0.8475482349863918</v>
       </c>
       <c r="P4">
-        <v>0.756130329768495</v>
+        <v>0.8475482349863918</v>
       </c>
       <c r="Q4">
-        <v>3.806675970064999</v>
+        <v>6.136758310748999</v>
       </c>
       <c r="R4">
-        <v>34.260083730585</v>
+        <v>55.230824796741</v>
       </c>
       <c r="S4">
-        <v>0.008939029848989106</v>
+        <v>0.01603687980440375</v>
       </c>
       <c r="T4">
-        <v>0.008939029848989108</v>
+        <v>0.01603687980440375</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.33575</v>
       </c>
       <c r="I5">
-        <v>0.02630990637159653</v>
+        <v>0.0261208867009986</v>
       </c>
       <c r="J5">
-        <v>0.02630990637159653</v>
+        <v>0.0261208867009986</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.652835333333333</v>
+        <v>0.9386610000000001</v>
       </c>
       <c r="N5">
-        <v>10.958506</v>
+        <v>2.815983</v>
       </c>
       <c r="O5">
-        <v>0.1451640905049821</v>
+        <v>0.04181245246793033</v>
       </c>
       <c r="P5">
-        <v>0.1451640905049821</v>
+        <v>0.04181245246793032</v>
       </c>
       <c r="Q5">
-        <v>1.626424932166667</v>
+        <v>0.41793881025</v>
       </c>
       <c r="R5">
-        <v>14.6378243895</v>
+        <v>3.76144929225</v>
       </c>
       <c r="S5">
-        <v>0.003819253629704045</v>
+        <v>0.001092178333605697</v>
       </c>
       <c r="T5">
-        <v>0.003819253629704044</v>
+        <v>0.001092178333605697</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.33575</v>
       </c>
       <c r="I6">
-        <v>0.02630990637159653</v>
+        <v>0.0261208867009986</v>
       </c>
       <c r="J6">
-        <v>0.02630990637159653</v>
+        <v>0.0261208867009986</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>7.451331</v>
       </c>
       <c r="O6">
-        <v>0.09870557972652284</v>
+        <v>0.1106393125456779</v>
       </c>
       <c r="P6">
-        <v>0.09870557972652286</v>
+        <v>0.1106393125456779</v>
       </c>
       <c r="Q6">
         <v>1.10590170925</v>
@@ -818,10 +818,10 @@
         <v>9.953115383249999</v>
       </c>
       <c r="S6">
-        <v>0.002596934560958973</v>
+        <v>0.002889996947682025</v>
       </c>
       <c r="T6">
-        <v>0.002596934560958973</v>
+        <v>0.002889996947682025</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.33575</v>
       </c>
       <c r="I7">
-        <v>0.02630990637159653</v>
+        <v>0.0261208867009986</v>
       </c>
       <c r="J7">
-        <v>0.02630990637159653</v>
+        <v>0.0261208867009986</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>57.080637</v>
       </c>
       <c r="O7">
-        <v>0.7561303297684949</v>
+        <v>0.8475482349863918</v>
       </c>
       <c r="P7">
-        <v>0.756130329768495</v>
+        <v>0.8475482349863918</v>
       </c>
       <c r="Q7">
         <v>8.471717874749999</v>
@@ -880,10 +880,10 @@
         <v>76.24546087274999</v>
       </c>
       <c r="S7">
-        <v>0.01989371818093351</v>
+        <v>0.02213871141971088</v>
       </c>
       <c r="T7">
-        <v>0.01989371818093351</v>
+        <v>0.02213871141971087</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>48.833895</v>
       </c>
       <c r="I8">
-        <v>0.9618680181249305</v>
+        <v>0.954957618164673</v>
       </c>
       <c r="J8">
-        <v>0.9618680181249305</v>
+        <v>0.954957618164673</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.652835333333333</v>
+        <v>0.9386610000000001</v>
       </c>
       <c r="N8">
-        <v>10.958506</v>
+        <v>2.815983</v>
       </c>
       <c r="O8">
-        <v>0.1451640905049821</v>
+        <v>0.04181245246793033</v>
       </c>
       <c r="P8">
-        <v>0.1451640905049821</v>
+        <v>0.04181245246793032</v>
       </c>
       <c r="Q8">
-        <v>59.46072570676333</v>
+        <v>15.279490904865</v>
       </c>
       <c r="R8">
-        <v>535.14653136087</v>
+        <v>137.515418143785</v>
       </c>
       <c r="S8">
-        <v>0.1396286960369352</v>
+        <v>0.03992912001839834</v>
       </c>
       <c r="T8">
-        <v>0.1396286960369352</v>
+        <v>0.03992912001839834</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>48.833895</v>
       </c>
       <c r="I9">
-        <v>0.9618680181249305</v>
+        <v>0.954957618164673</v>
       </c>
       <c r="J9">
-        <v>0.9618680181249305</v>
+        <v>0.954957618164673</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>7.451331</v>
       </c>
       <c r="O9">
-        <v>0.09870557972652284</v>
+        <v>0.1106393125456779</v>
       </c>
       <c r="P9">
-        <v>0.09870557972652286</v>
+        <v>0.1106393125456779</v>
       </c>
       <c r="Q9">
         <v>40.43083507380499</v>
@@ -1004,10 +1004,10 @@
         <v>363.877515664245</v>
       </c>
       <c r="S9">
-        <v>0.09494174034942285</v>
+        <v>0.1056558543839974</v>
       </c>
       <c r="T9">
-        <v>0.09494174034942286</v>
+        <v>0.1056558543839974</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>48.833895</v>
       </c>
       <c r="I10">
-        <v>0.9618680181249305</v>
+        <v>0.954957618164673</v>
       </c>
       <c r="J10">
-        <v>0.9618680181249305</v>
+        <v>0.954957618164673</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>57.080637</v>
       </c>
       <c r="O10">
-        <v>0.7561303297684949</v>
+        <v>0.8475482349863918</v>
       </c>
       <c r="P10">
-        <v>0.756130329768495</v>
+        <v>0.8475482349863918</v>
       </c>
       <c r="Q10">
         <v>309.7188704212349</v>
@@ -1066,10 +1066,10 @@
         <v>2787.469833791115</v>
       </c>
       <c r="S10">
-        <v>0.7272975817385724</v>
+        <v>0.8093726437622772</v>
       </c>
       <c r="T10">
-        <v>0.7272975817385725</v>
+        <v>0.8093726437622772</v>
       </c>
     </row>
   </sheetData>
